--- a/Modulo-Gestion de producción/Calculos_Tiempos_Limon.xlsx
+++ b/Modulo-Gestion de producción/Calculos_Tiempos_Limon.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e8f0f7aeab8285/Escritorio/XIISEM/APM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Escritorio\XIISEM\APM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="14_{0F4FD391-A12A-46C5-8D84-A9B7780CD0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1102D107-54D6-4C5F-ACE0-48817E2FC2BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC32AF19-44F6-4E9F-B663-14BF4662CFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FA730B82-1134-4DDC-9A95-063D803BF157}"/>
   </bookViews>
   <sheets>
-    <sheet name="Limón manual" sheetId="3" r:id="rId1"/>
+    <sheet name="Limón automatizado" sheetId="4" r:id="rId1"/>
+    <sheet name="Limón manual" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
   <si>
     <t xml:space="preserve">Valor </t>
   </si>
@@ -202,6 +203,9 @@
   </si>
   <si>
     <t>s/kg</t>
+  </si>
+  <si>
+    <t>selección por tamaño</t>
   </si>
 </sst>
 </file>
@@ -336,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -368,6 +372,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -689,11 +696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA251A6-5514-4BE9-A8E7-493F0444CC74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128D0C65-AE19-4136-BF78-09A76B67182E}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,12 +724,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <f>B3*12</f>
-        <v>1555200</v>
+        <v>1785600</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -732,10 +739,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="11">
         <f>B4*30</f>
-        <v>129600</v>
+        <v>148800</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -745,30 +752,30 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="3">
         <f>B42</f>
-        <v>4320</v>
+        <v>4960</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1">
         <f>B4/24</f>
-        <v>180</v>
+        <v>206.66666666666666</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="1">
         <f>B5/60</f>
-        <v>3</v>
+        <v>3.4444444444444442</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -780,7 +787,7 @@
       </c>
       <c r="B7" s="1">
         <f>B2*1.2</f>
-        <v>1866240</v>
+        <v>2142720</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -803,14 +810,14 @@
       </c>
       <c r="B9" s="1">
         <f>B3/B8</f>
-        <v>6480</v>
+        <v>7440</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
@@ -821,7 +828,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="3">
         <v>6</v>
       </c>
@@ -847,7 +854,7 @@
       </c>
       <c r="B13" s="1">
         <f>B12/B3*60</f>
-        <v>8.8888888888888878E-2</v>
+        <v>7.7419354838709681E-2</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -866,52 +873,52 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="1">
         <f>B2</f>
-        <v>1555200</v>
+        <v>1785600</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="1">
         <f>B15/12</f>
-        <v>129600</v>
+        <v>148800</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="1">
         <f>B15/(B11/7*365)</f>
-        <v>4970.9589041095896</v>
+        <v>5707.3972602739732</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="1">
         <f>B17/8</f>
-        <v>621.3698630136987</v>
+        <v>713.42465753424665</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="1">
         <f>B18/60</f>
-        <v>10.356164383561644</v>
+        <v>11.890410958904111</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -969,10 +976,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B27" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>31</v>
@@ -1026,7 +1033,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="7">
@@ -1037,18 +1044,18 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="10">
-        <v>25</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="15">
+        <v>3</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B34" s="7">
@@ -1077,21 +1084,21 @@
         <v>51</v>
       </c>
       <c r="B36" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="6">
         <f>SUM(B27:B32)+((B33+B34)/1.5)+((B35+B36)/20)+(B25+B26/20)</f>
-        <v>133.18333333333334</v>
-      </c>
-      <c r="C37" s="10" t="s">
+        <v>115.91666666666667</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D37" t="s">
@@ -1099,12 +1106,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="6">
         <f>B37/3600</f>
-        <v>3.6995370370370373E-2</v>
-      </c>
-      <c r="C38" s="10" t="s">
+        <v>3.2199074074074074E-2</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1123,7 +1130,7 @@
       <c r="A41" s="13"/>
       <c r="B41" s="14">
         <f>ROUNDDOWN(B40/B38,0)</f>
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>53</v>
@@ -1133,7 +1140,469 @@
       <c r="A42" s="14"/>
       <c r="B42" s="14">
         <f>B41*B22</f>
-        <v>4320</v>
+        <v>4960</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A37:A38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA251A6-5514-4BE9-A8E7-493F0444CC74}">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <f>B3*12</f>
+        <v>1504800</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="11">
+        <f>B4*30</f>
+        <v>125400</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="3">
+        <f>B42</f>
+        <v>4180</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="1">
+        <f>B4/24</f>
+        <v>174.16666666666666</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="1">
+        <f>B5/60</f>
+        <v>2.9027777777777777</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <f>B2*1.2</f>
+        <v>1805760</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B3/B8</f>
+        <v>6270</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <f>B10*B11*4</f>
+        <v>192</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <f>B12/B3*60</f>
+        <v>9.186602870813397E-2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1">
+        <f>B2/B7*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1">
+        <f>B2</f>
+        <v>1504800</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="1">
+        <f>B15/12</f>
+        <v>125400</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="1">
+        <f>B15/(B11/7*365)</f>
+        <v>4809.8630136986303</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="1">
+        <f>B17/8</f>
+        <v>601.23287671232879</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="1">
+        <f>B18/60</f>
+        <v>10.020547945205481</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="7">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="7">
+        <v>10</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="7">
+        <v>7</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="7">
+        <v>5</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="7">
+        <v>30</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="7">
+        <v>40</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="7">
+        <v>15</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="7">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="10">
+        <v>25</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="7">
+        <v>10</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="7">
+        <v>12</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="7">
+        <v>15</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="6">
+        <f>SUM(B27:B32)+((B33+B34)/1.5)+((B35+B36)/20)+(B25+B26/20)</f>
+        <v>137.18333333333334</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="6">
+        <f>B37/3600</f>
+        <v>3.8106481481481484E-2</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="14">
+        <v>8</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14">
+        <f>ROUNDDOWN(B40/B38,0)</f>
+        <v>209</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14">
+        <f>B41*B22</f>
+        <v>4180</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>54</v>
